--- a/excel/test_file_with_line_to_skip.xlsx
+++ b/excel/test_file_with_line_to_skip.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t># This is a test line to skip</t>
+          <t>This is a test line to skip</t>
         </is>
       </c>
       <c r="B1" t="inlineStr"/>
